--- a/tournamentBP/salvaaa.xlsx
+++ b/tournamentBP/salvaaa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tito\IST\ACEDes\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tito\IST\ACEDes\acedes_labs\tournamentBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CBE610-16BA-4DFA-BD59-511A06F1384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B04AF-8FE7-432E-AA3B-041137B7196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEB33681-9BBE-4824-B269-411C41F3A2C2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>localPredictorSize</t>
   </si>
@@ -95,6 +95,33 @@
   </si>
   <si>
     <t>BTB 1024</t>
+  </si>
+  <si>
+    <t>Ideal BP</t>
+  </si>
+  <si>
+    <t>Tournament Size</t>
+  </si>
+  <si>
+    <t>BTB Size</t>
+  </si>
+  <si>
+    <t>RAS Size</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Miss Rate TBP</t>
+  </si>
+  <si>
+    <t>Hit Rate BTB</t>
+  </si>
+  <si>
+    <t>Hit Rate RAS</t>
   </si>
 </sst>
 </file>
@@ -218,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -239,6 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -248,8 +279,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1355E5-AFA8-4D8A-9BD2-0BBD0234E730}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +632,10 @@
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -778,7 +809,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -818,7 +849,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8">
         <v>4096</v>
       </c>
@@ -856,7 +887,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9">
         <v>4096</v>
       </c>
@@ -894,7 +925,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10">
         <v>4096</v>
       </c>
@@ -932,7 +963,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11">
         <v>4096</v>
       </c>
@@ -970,7 +1001,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12">
         <v>4096</v>
       </c>
@@ -1008,7 +1039,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13">
         <v>4096</v>
       </c>
@@ -1046,7 +1077,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14">
         <v>4096</v>
       </c>
@@ -1084,7 +1115,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15">
         <v>4096</v>
       </c>
@@ -1122,7 +1153,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16">
         <v>4096</v>
       </c>
@@ -1161,7 +1192,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17">
         <v>4096</v>
       </c>
@@ -1199,7 +1230,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18">
         <v>4096</v>
       </c>
@@ -1237,7 +1268,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19">
         <v>4096</v>
       </c>
@@ -1276,7 +1307,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20">
         <v>4096</v>
       </c>
@@ -1315,7 +1346,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21">
         <v>4096</v>
       </c>
@@ -1354,7 +1385,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22">
         <v>4096</v>
       </c>
@@ -1393,7 +1424,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23">
         <v>4096</v>
       </c>
@@ -1447,7 +1478,7 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B25">
@@ -1487,7 +1518,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26">
         <v>4096</v>
       </c>
@@ -1525,7 +1556,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27">
         <v>4096</v>
       </c>
@@ -1563,7 +1594,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28">
         <v>4096</v>
       </c>
@@ -1601,7 +1632,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29">
         <v>4096</v>
       </c>
@@ -1639,7 +1670,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30">
         <v>4096</v>
       </c>
@@ -1677,7 +1708,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31">
         <v>4096</v>
       </c>
@@ -1715,7 +1746,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32">
         <v>4096</v>
       </c>
@@ -1753,7 +1784,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33">
         <v>4096</v>
       </c>
@@ -1791,7 +1822,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34">
         <v>4096</v>
       </c>
@@ -1830,7 +1861,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35">
         <v>4096</v>
       </c>
@@ -1868,7 +1899,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36">
         <v>4096</v>
       </c>
@@ -1906,7 +1937,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37">
         <v>4096</v>
       </c>
@@ -1945,7 +1976,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38">
         <v>4096</v>
       </c>
@@ -1984,7 +2015,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39">
         <v>4096</v>
       </c>
@@ -2023,7 +2054,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40">
         <v>4096</v>
       </c>
@@ -2062,7 +2093,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="B41">
         <v>4096</v>
       </c>
@@ -2116,7 +2147,7 @@
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B43">
@@ -2156,7 +2187,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
       <c r="B44">
         <v>4096</v>
       </c>
@@ -2194,7 +2225,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45">
         <v>4096</v>
       </c>
@@ -2232,7 +2263,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
       <c r="B46">
         <v>4096</v>
       </c>
@@ -2270,7 +2301,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="14"/>
       <c r="B47">
         <v>4096</v>
       </c>
@@ -2308,7 +2339,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
       <c r="B48">
         <v>4096</v>
       </c>
@@ -2346,7 +2377,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="14"/>
       <c r="B49">
         <v>4096</v>
       </c>
@@ -2384,7 +2415,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
       <c r="B50">
         <v>4096</v>
       </c>
@@ -2422,7 +2453,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
       <c r="B51">
         <v>4096</v>
       </c>
@@ -2460,7 +2491,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
       <c r="B52">
         <v>4096</v>
       </c>
@@ -2498,7 +2529,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="14"/>
       <c r="B53">
         <v>4096</v>
       </c>
@@ -2536,7 +2567,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
       <c r="B54">
         <v>4096</v>
       </c>
@@ -2574,7 +2605,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="14"/>
       <c r="B55">
         <v>4096</v>
       </c>
@@ -2613,7 +2644,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
       <c r="B56">
         <v>4096</v>
       </c>
@@ -2652,7 +2683,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="14"/>
       <c r="B57">
         <v>4096</v>
       </c>
@@ -2691,7 +2722,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
       <c r="B58">
         <v>4096</v>
       </c>
@@ -2730,7 +2761,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="14"/>
       <c r="B59">
         <v>4096</v>
       </c>
@@ -2784,7 +2815,7 @@
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B61">
@@ -2824,7 +2855,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="15"/>
       <c r="B62">
         <v>4096</v>
       </c>
@@ -2862,7 +2893,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63">
         <v>4096</v>
       </c>
@@ -2900,7 +2931,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64">
         <v>4096</v>
       </c>
@@ -2938,7 +2969,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65">
         <v>4096</v>
       </c>
@@ -2976,7 +3007,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66">
         <v>4096</v>
       </c>
@@ -3014,7 +3045,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67">
         <v>4096</v>
       </c>
@@ -3742,7 +3773,7 @@
       <c r="N87" s="9"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B88">
@@ -3782,7 +3813,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="16"/>
       <c r="B89">
         <f t="shared" ref="B89:B99" si="14">2*B88</f>
         <v>128</v>
@@ -3821,7 +3852,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="16"/>
       <c r="B90">
         <f t="shared" si="14"/>
         <v>256</v>
@@ -3860,7 +3891,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="16"/>
       <c r="B91">
         <f t="shared" si="14"/>
         <v>512</v>
@@ -3899,7 +3930,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="16"/>
       <c r="B92">
         <f t="shared" si="14"/>
         <v>1024</v>
@@ -3938,7 +3969,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="16"/>
       <c r="B93">
         <f t="shared" si="14"/>
         <v>2048</v>
@@ -3977,7 +4008,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="16"/>
       <c r="B94">
         <f t="shared" si="14"/>
         <v>4096</v>
@@ -4016,7 +4047,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="16"/>
       <c r="B95">
         <f t="shared" si="14"/>
         <v>8192</v>
@@ -4055,7 +4086,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="16"/>
       <c r="B96">
         <f t="shared" si="14"/>
         <v>16384</v>
@@ -4094,7 +4125,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="16"/>
       <c r="B97">
         <f t="shared" si="14"/>
         <v>32768</v>
@@ -4133,7 +4164,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="16"/>
       <c r="B98">
         <f t="shared" si="14"/>
         <v>65536</v>
@@ -4172,7 +4203,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="16"/>
       <c r="B99">
         <f t="shared" si="14"/>
         <v>131072</v>
@@ -4366,11 +4397,11 @@
         <v>232644</v>
       </c>
       <c r="L105" s="2">
-        <f>K105/J105</f>
+        <f t="shared" ref="L105:L111" si="15">K105/J105</f>
         <v>0.13139252559721179</v>
       </c>
       <c r="N105">
-        <f>(D105*E105+H105*G105+F105*LOG(B105,2)+B105*C105)/8</f>
+        <f t="shared" ref="N105:N111" si="16">(D105*E105+H105*G105+F105*LOG(B105,2)+B105*C105)/8</f>
         <v>1824</v>
       </c>
     </row>
@@ -4403,11 +4434,11 @@
         <v>232805</v>
       </c>
       <c r="L106" s="2">
-        <f>K106/J106</f>
+        <f t="shared" si="15"/>
         <v>0.13148226693602633</v>
       </c>
       <c r="N106">
-        <f>(D106*E106+H106*G106+F106*LOG(B106,2)+B106*C106)/8</f>
+        <f t="shared" si="16"/>
         <v>3872</v>
       </c>
     </row>
@@ -4440,11 +4471,11 @@
         <v>230464</v>
       </c>
       <c r="L107" s="2">
-        <f>K107/J107</f>
+        <f t="shared" si="15"/>
         <v>0.13016020395138872</v>
       </c>
       <c r="N107">
-        <f>(D107*E107+H107*G107+F107*LOG(B107,2)+B107*C107)/8</f>
+        <f t="shared" si="16"/>
         <v>1936</v>
       </c>
     </row>
@@ -4477,11 +4508,11 @@
         <v>229348</v>
       </c>
       <c r="L108" s="2">
-        <f>K108/J108</f>
+        <f t="shared" si="15"/>
         <v>0.12953013500958707</v>
       </c>
       <c r="N108">
-        <f>(D108*E108+H108*G108+F108*LOG(B108,2)+B108*C108)/8</f>
+        <f t="shared" si="16"/>
         <v>2320</v>
       </c>
     </row>
@@ -4514,11 +4545,11 @@
         <v>229449</v>
       </c>
       <c r="L109" s="2">
-        <f>K109/J109</f>
+        <f t="shared" si="15"/>
         <v>0.12958717733668809</v>
       </c>
       <c r="N109">
-        <f>(D109*E109+H109*G109+F109*LOG(B109,2)+B109*C109)/8</f>
+        <f t="shared" si="16"/>
         <v>2832</v>
       </c>
     </row>
@@ -4551,11 +4582,11 @@
         <v>229963</v>
       </c>
       <c r="L110" s="2">
-        <f>K110/J110</f>
+        <f t="shared" si="15"/>
         <v>0.12987732524876922</v>
       </c>
       <c r="N110">
-        <f>(D110*E110+H110*G110+F110*LOG(B110,2)+B110*C110)/8</f>
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
     </row>
@@ -4588,11 +4619,11 @@
         <v>232062</v>
       </c>
       <c r="L111" s="2">
-        <f>K111/J111</f>
+        <f t="shared" si="15"/>
         <v>0.13106286173851361</v>
       </c>
       <c r="N111">
-        <f>(D111*E111+H111*G111+F111*LOG(B111,2)+B111*C111)/8</f>
+        <f t="shared" si="16"/>
         <v>2816</v>
       </c>
     </row>
@@ -4665,7 +4696,7 @@
         <v>252276</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" ref="L116:L119" si="15">K116/J116</f>
+        <f t="shared" ref="L116:L119" si="17">K116/J116</f>
         <v>0.142478744757492</v>
       </c>
       <c r="N116">
@@ -4702,11 +4733,11 @@
         <v>246988</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.1394948234739965</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:N119" si="16">(D117*E117+H117*G117+F117*LOG(B117,2)+B117*C117)/8</f>
+        <f t="shared" ref="N117:N119" si="18">(D117*E117+H117*G117+F117*LOG(B117,2)+B117*C117)/8</f>
         <v>256</v>
       </c>
     </row>
@@ -4739,11 +4770,11 @@
         <v>247146</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.13958240380433862</v>
       </c>
       <c r="N118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>528</v>
       </c>
     </row>
@@ -4776,11 +4807,11 @@
         <v>246383</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.13915132168990157</v>
       </c>
       <c r="N119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1104</v>
       </c>
     </row>
@@ -4940,21 +4971,21 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124">
-        <f t="shared" ref="B124:B125" si="17">B123*2</f>
+        <f t="shared" ref="B124:B125" si="19">B123*2</f>
         <v>16384</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124">
-        <f t="shared" ref="D124:D126" si="18">D123*2</f>
+        <f t="shared" ref="D124:D126" si="20">D123*2</f>
         <v>16384</v>
       </c>
       <c r="E124">
         <v>4</v>
       </c>
       <c r="F124">
-        <f t="shared" ref="F124:F126" si="19">F123*2</f>
+        <f t="shared" ref="F124:F126" si="21">F123*2</f>
         <v>16384</v>
       </c>
       <c r="G124">
@@ -4970,33 +5001,33 @@
         <v>238320</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" ref="L124:L126" si="20">K124/J124</f>
+        <f t="shared" ref="L124:L126" si="22">K124/J124</f>
         <v>0.13459836518786558</v>
       </c>
       <c r="N124">
-        <f t="shared" ref="N124:N126" si="21">(D124*E124+H124*G124+F124*LOG(B124,2)+B124*C124)/8</f>
+        <f t="shared" ref="N124:N126" si="23">(D124*E124+H124*G124+F124*LOG(B124,2)+B124*C124)/8</f>
         <v>45072</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125">
-        <f t="shared" si="17"/>
-        <v>32768</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="18"/>
-        <v>32768</v>
-      </c>
-      <c r="E125">
-        <v>4</v>
-      </c>
-      <c r="F125">
         <f t="shared" si="19"/>
         <v>32768</v>
       </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="20"/>
+        <v>32768</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="21"/>
+        <v>32768</v>
+      </c>
       <c r="G125">
         <v>4</v>
       </c>
@@ -5010,11 +5041,11 @@
         <v>244835</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.13827720390148029</v>
       </c>
       <c r="N125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>94224</v>
       </c>
     </row>
@@ -5027,14 +5058,14 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>65536</v>
       </c>
       <c r="E126">
         <v>4</v>
       </c>
       <c r="F126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65536</v>
       </c>
       <c r="G126">
@@ -5050,11 +5081,11 @@
         <v>250510</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14148271353576886</v>
       </c>
       <c r="N126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>196624</v>
       </c>
     </row>
@@ -5133,21 +5164,21 @@
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135">
@@ -5186,8 +5217,91 @@
         <v>4880</v>
       </c>
     </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" t="s">
+        <v>26</v>
+      </c>
+      <c r="M139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>4880</v>
+      </c>
+      <c r="C140">
+        <v>16384</v>
+      </c>
+      <c r="D140">
+        <v>256</v>
+      </c>
+      <c r="F140">
+        <f>32*1024-B140-C140-D140</f>
+        <v>11248</v>
+      </c>
+      <c r="G140">
+        <f>B140+C140+D140</f>
+        <v>21520</v>
+      </c>
+      <c r="I140">
+        <v>1770627</v>
+      </c>
+      <c r="J140">
+        <v>229141</v>
+      </c>
+      <c r="K140" s="2">
+        <f>J140/I140</f>
+        <v>0.12941234941068899</v>
+      </c>
+      <c r="L140">
+        <f>0.919732*100</f>
+        <v>91.973200000000006</v>
+      </c>
+      <c r="M140">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B138:N138"/>
+    <mergeCell ref="I139:K139"/>
     <mergeCell ref="B134:N134"/>
     <mergeCell ref="A7:A23"/>
     <mergeCell ref="A25:A41"/>
@@ -5303,6 +5417,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L115">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5317,18 +5443,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L116:L126">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L114">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5416,12 +5530,12 @@
       <c r="I2">
         <v>272022</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="12">
         <f>I2/H2*100</f>
         <v>15.362997710985518</v>
       </c>
       <c r="K2">
-        <f>(C2*D2+E2*F2+G2*LOG(A2,2)+A2*B2)/8</f>
+        <f t="shared" ref="K2:K21" si="0">(C2*D2+E2*F2+G2*LOG(A2,2)+A2*B2)/8</f>
         <v>60</v>
       </c>
     </row>
@@ -5453,12 +5567,12 @@
       <c r="I3">
         <v>240730</v>
       </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J66" si="0">I3/H3*100</f>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J66" si="1">I3/H3*100</f>
         <v>13.595718136641683</v>
       </c>
       <c r="K3">
-        <f>(C3*D3+E3*F3+G3*LOG(A3,2)+A3*B3)/8</f>
+        <f t="shared" si="0"/>
         <v>728</v>
       </c>
     </row>
@@ -5490,12 +5604,12 @@
       <c r="I4">
         <v>258300</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>14.587995034546946</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>14.587995034546946</v>
-      </c>
-      <c r="K4">
-        <f>(C4*D4+E4*F4+G4*LOG(A4,2)+A4*B4)/8</f>
         <v>216</v>
       </c>
     </row>
@@ -5527,12 +5641,12 @@
       <c r="I5">
         <v>257731</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>14.555991184998685</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>14.555991184998685</v>
-      </c>
-      <c r="K5">
-        <f>(C5*D5+E5*F5+G5*LOG(A5,2)+A5*B5)/8</f>
         <v>2560.5</v>
       </c>
     </row>
@@ -5564,12 +5678,12 @@
       <c r="I6">
         <v>250001</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>14.119372605363983</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>14.119372605363983</v>
-      </c>
-      <c r="K6">
-        <f>(C6*D6+E6*F6+G6*LOG(A6,2)+A6*B6)/8</f>
         <v>2561</v>
       </c>
     </row>
@@ -5601,12 +5715,12 @@
       <c r="I7">
         <v>249573</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>14.095184415003507</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>14.095184415003507</v>
-      </c>
-      <c r="K7">
-        <f>(C7*D7+E7*F7+G7*LOG(A7,2)+A7*B7)/8</f>
         <v>2562</v>
       </c>
     </row>
@@ -5638,12 +5752,12 @@
       <c r="I8">
         <v>237028</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>13.386700613286962</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>13.386700613286962</v>
-      </c>
-      <c r="K8">
-        <f>(C8*D8+E8*F8+G8*LOG(A8,2)+A8*B8)/8</f>
         <v>2564</v>
       </c>
     </row>
@@ -5675,12 +5789,12 @@
       <c r="I9">
         <v>236163</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>13.337923080876509</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>13.337923080876509</v>
-      </c>
-      <c r="K9">
-        <f>(C9*D9+E9*F9+G9*LOG(A9,2)+A9*B9)/8</f>
         <v>2568</v>
       </c>
     </row>
@@ -5712,12 +5826,12 @@
       <c r="I10">
         <v>234904</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>13.266750328415663</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>13.266750328415663</v>
-      </c>
-      <c r="K10">
-        <f>(C10*D10+E10*F10+G10*LOG(A10,2)+A10*B10)/8</f>
         <v>2576</v>
       </c>
     </row>
@@ -5749,12 +5863,12 @@
       <c r="I11">
         <v>239331</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>13.516828898433594</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>13.516828898433594</v>
-      </c>
-      <c r="K11">
-        <f>(C11*D11+E11*F11+G11*LOG(A11,2)+A11*B11)/8</f>
         <v>2592</v>
       </c>
     </row>
@@ -5786,12 +5900,12 @@
       <c r="I12">
         <v>238389</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>13.463596629201428</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>13.463596629201428</v>
-      </c>
-      <c r="K12">
-        <f>(C12*D12+E12*F12+G12*LOG(A12,2)+A12*B12)/8</f>
         <v>2624</v>
       </c>
     </row>
@@ -5823,12 +5937,12 @@
       <c r="I13">
         <v>237198</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>13.396437940703883</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>13.396437940703883</v>
-      </c>
-      <c r="K13">
-        <f>(C13*D13+E13*F13+G13*LOG(A13,2)+A13*B13)/8</f>
         <v>2688</v>
       </c>
     </row>
@@ -5860,12 +5974,12 @@
       <c r="I14">
         <v>237069</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>13.389023744198367</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>13.389023744198367</v>
-      </c>
-      <c r="K14">
-        <f>(C14*D14+E14*F14+G14*LOG(A14,2)+A14*B14)/8</f>
         <v>2816</v>
       </c>
     </row>
@@ -5897,12 +6011,12 @@
       <c r="I15">
         <v>237092</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>13.390383222994961</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>13.390383222994961</v>
-      </c>
-      <c r="K15">
-        <f>(C15*D15+E15*F15+G15*LOG(A15,2)+A15*B15)/8</f>
         <v>3072</v>
       </c>
     </row>
@@ -5934,12 +6048,12 @@
       <c r="I16">
         <v>237269</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>13.400319209859585</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>13.400319209859585</v>
-      </c>
-      <c r="K16">
-        <f>(C16*D16+E16*F16+G16*LOG(A16,2)+A16*B16)/8</f>
         <v>3584</v>
       </c>
     </row>
@@ -5972,12 +6086,12 @@
       <c r="I17">
         <v>237314</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>13.402890968012299</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>13.402890968012299</v>
-      </c>
-      <c r="K17">
-        <f>(C17*D17+E17*F17+G17*LOG(A17,2)+A17*B17)/8</f>
         <v>4608</v>
       </c>
     </row>
@@ -6010,12 +6124,12 @@
       <c r="I18">
         <v>238568</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>13.473698478499058</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>13.473698478499058</v>
-      </c>
-      <c r="K18">
-        <f>(C18*D18+E18*F18+G18*LOG(A18,2)+A18*B18)/8</f>
         <v>6656</v>
       </c>
     </row>
@@ -6048,12 +6162,12 @@
       <c r="I19">
         <v>239613</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
+        <v>13.532747925015926</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
-        <v>13.532747925015926</v>
-      </c>
-      <c r="K19">
-        <f>(C19*D19+E19*F19+G19*LOG(A19,2)+A19*B19)/8</f>
         <v>10752</v>
       </c>
     </row>
@@ -6086,12 +6200,12 @@
       <c r="I20">
         <v>240458</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="12">
+        <f t="shared" si="1"/>
+        <v>13.580387060628807</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
-        <v>13.580387060628807</v>
-      </c>
-      <c r="K20">
-        <f>(C20*D20+E20*F20+G20*LOG(A20,2)+A20*B20)/8</f>
         <v>18944</v>
       </c>
     </row>
@@ -6124,12 +6238,12 @@
       <c r="I21">
         <v>240944</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
+        <f t="shared" si="1"/>
+        <v>13.607911818309661</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>13.607911818309661</v>
-      </c>
-      <c r="K21">
-        <f>(C21*D21+E21*F21+G21*LOG(A21,2)+A21*B21)/8</f>
         <v>35328</v>
       </c>
     </row>
@@ -6161,12 +6275,12 @@
       <c r="I22">
         <v>254375</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
         <v>14.366517753768477</v>
       </c>
       <c r="K22">
-        <f>(C22*D22+G22*F22+E22*LOG(A22,2)+A22*B22)/8</f>
+        <f t="shared" ref="K22:K53" si="2">(C22*D22+G22*F22+E22*LOG(A22,2)+A22*B22)/8</f>
         <v>2305.5</v>
       </c>
     </row>
@@ -6198,12 +6312,12 @@
       <c r="I23">
         <v>245206</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="0"/>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
         <v>13.8486110499272</v>
       </c>
       <c r="K23">
-        <f>(C23*D23+G23*F23+E23*LOG(A23,2)+A23*B23)/8</f>
+        <f t="shared" si="2"/>
         <v>2307</v>
       </c>
     </row>
@@ -6235,12 +6349,12 @@
       <c r="I24">
         <v>241863</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="0"/>
+      <c r="J24" s="12">
+        <f t="shared" si="1"/>
         <v>13.659806914873791</v>
       </c>
       <c r="K24">
-        <f>(C24*D24+G24*F24+E24*LOG(A24,2)+A24*B24)/8</f>
+        <f t="shared" si="2"/>
         <v>2310</v>
       </c>
     </row>
@@ -6272,12 +6386,12 @@
       <c r="I25">
         <v>240705</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="0"/>
+      <c r="J25" s="12">
+        <f t="shared" si="1"/>
         <v>13.594544222297525</v>
       </c>
       <c r="K25">
-        <f>(C25*D25+G25*F25+E25*LOG(A25,2)+A25*B25)/8</f>
+        <f t="shared" si="2"/>
         <v>2316</v>
       </c>
     </row>
@@ -6309,12 +6423,12 @@
       <c r="I26">
         <v>239525</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="0"/>
+      <c r="J26" s="12">
+        <f t="shared" si="1"/>
         <v>13.527884866277121</v>
       </c>
       <c r="K26">
-        <f>(C26*D26+G26*F26+E26*LOG(A26,2)+A26*B26)/8</f>
+        <f t="shared" si="2"/>
         <v>2328</v>
       </c>
     </row>
@@ -6346,12 +6460,12 @@
       <c r="I27">
         <v>239133</v>
       </c>
-      <c r="J27" s="15">
-        <f t="shared" si="0"/>
+      <c r="J27" s="12">
+        <f t="shared" si="1"/>
         <v>13.505714992494095</v>
       </c>
       <c r="K27">
-        <f>(C27*D27+G27*F27+E27*LOG(A27,2)+A27*B27)/8</f>
+        <f t="shared" si="2"/>
         <v>2352</v>
       </c>
     </row>
@@ -6383,12 +6497,12 @@
       <c r="I28">
         <v>237426</v>
       </c>
-      <c r="J28" s="15">
-        <f t="shared" si="0"/>
+      <c r="J28" s="12">
+        <f t="shared" si="1"/>
         <v>13.409307321899961</v>
       </c>
       <c r="K28">
-        <f>(C28*D28+G28*F28+E28*LOG(A28,2)+A28*B28)/8</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
     </row>
@@ -6420,12 +6534,12 @@
       <c r="I29">
         <v>237838</v>
       </c>
-      <c r="J29" s="15">
-        <f t="shared" si="0"/>
+      <c r="J29" s="12">
+        <f t="shared" si="1"/>
         <v>13.432659642662495</v>
       </c>
       <c r="K29">
-        <f>(C29*D29+G29*F29+E29*LOG(A29,2)+A29*B29)/8</f>
+        <f t="shared" si="2"/>
         <v>2496</v>
       </c>
     </row>
@@ -6457,12 +6571,12 @@
       <c r="I30">
         <v>237342</v>
       </c>
-      <c r="J30" s="15">
-        <f t="shared" si="0"/>
+      <c r="J30" s="12">
+        <f t="shared" si="1"/>
         <v>13.404548042254413</v>
       </c>
       <c r="K30">
-        <f>(C30*D30+G30*F30+E30*LOG(A30,2)+A30*B30)/8</f>
+        <f t="shared" si="2"/>
         <v>2688</v>
       </c>
     </row>
@@ -6494,12 +6608,12 @@
       <c r="I31">
         <v>235127</v>
       </c>
-      <c r="J31" s="15">
-        <f t="shared" si="0"/>
+      <c r="J31" s="12">
+        <f t="shared" si="1"/>
         <v>13.279524770727177</v>
       </c>
       <c r="K31">
-        <f>(C31*D31+G31*F31+E31*LOG(A31,2)+A31*B31)/8</f>
+        <f t="shared" si="2"/>
         <v>3072</v>
       </c>
     </row>
@@ -6531,12 +6645,12 @@
       <c r="I32">
         <v>234704</v>
       </c>
-      <c r="J32" s="15">
-        <f t="shared" si="0"/>
+      <c r="J32" s="12">
+        <f t="shared" si="1"/>
         <v>13.255492294493953</v>
       </c>
       <c r="K32">
-        <f>(C32*D32+G32*F32+E32*LOG(A32,2)+A32*B32)/8</f>
+        <f t="shared" si="2"/>
         <v>3840</v>
       </c>
     </row>
@@ -6568,12 +6682,12 @@
       <c r="I33">
         <v>234787</v>
       </c>
-      <c r="J33" s="15">
-        <f t="shared" si="0"/>
+      <c r="J33" s="12">
+        <f t="shared" si="1"/>
         <v>13.260277283909897</v>
       </c>
       <c r="K33">
-        <f>(C33*D33+G33*F33+E33*LOG(A33,2)+A33*B33)/8</f>
+        <f t="shared" si="2"/>
         <v>5376</v>
       </c>
     </row>
@@ -6606,12 +6720,12 @@
       <c r="I34">
         <v>235459</v>
       </c>
-      <c r="J34" s="15">
-        <f t="shared" si="0"/>
+      <c r="J34" s="12">
+        <f t="shared" si="1"/>
         <v>13.29820039218167</v>
       </c>
       <c r="K34">
-        <f>(C34*D34+G34*F34+E34*LOG(A34,2)+A34*B34)/8</f>
+        <f t="shared" si="2"/>
         <v>8448</v>
       </c>
     </row>
@@ -6644,12 +6758,12 @@
       <c r="I35">
         <v>238095</v>
       </c>
-      <c r="J35" s="15">
-        <f t="shared" si="0"/>
+      <c r="J35" s="12">
+        <f t="shared" si="1"/>
         <v>13.447075806728536</v>
       </c>
       <c r="K35">
-        <f>(C35*D35+G35*F35+E35*LOG(A35,2)+A35*B35)/8</f>
+        <f t="shared" si="2"/>
         <v>14592</v>
       </c>
     </row>
@@ -6682,12 +6796,12 @@
       <c r="I36">
         <v>239173</v>
       </c>
-      <c r="J36" s="15">
-        <f t="shared" si="0"/>
+      <c r="J36" s="12">
+        <f t="shared" si="1"/>
         <v>13.507989364081411</v>
       </c>
       <c r="K36">
-        <f>(C36*D36+G36*F36+E36*LOG(A36,2)+A36*B36)/8</f>
+        <f t="shared" si="2"/>
         <v>26880</v>
       </c>
     </row>
@@ -6720,12 +6834,12 @@
       <c r="I37">
         <v>240542</v>
       </c>
-      <c r="J37" s="15">
-        <f t="shared" si="0"/>
+      <c r="J37" s="12">
+        <f t="shared" si="1"/>
         <v>13.585246231246598</v>
       </c>
       <c r="K37">
-        <f>(C37*D37+G37*F37+E37*LOG(A37,2)+A37*B37)/8</f>
+        <f t="shared" si="2"/>
         <v>51456</v>
       </c>
     </row>
@@ -6758,12 +6872,12 @@
       <c r="I38">
         <v>240656</v>
       </c>
-      <c r="J38" s="15">
-        <f t="shared" si="0"/>
+      <c r="J38" s="12">
+        <f t="shared" si="1"/>
         <v>13.591738417094723</v>
       </c>
       <c r="K38">
-        <f>(C38*D38+G38*F38+E38*LOG(A38,2)+A38*B38)/8</f>
+        <f t="shared" si="2"/>
         <v>100608</v>
       </c>
     </row>
@@ -6795,12 +6909,12 @@
       <c r="I39">
         <v>258967</v>
       </c>
-      <c r="J39" s="15">
-        <f t="shared" si="0"/>
+      <c r="J39" s="12">
+        <f t="shared" si="1"/>
         <v>14.625888184108613</v>
       </c>
       <c r="K39">
-        <f>(C39*D39+G39*F39+E39*LOG(A39,2)+A39*B39)/8</f>
+        <f t="shared" si="2"/>
         <v>2560.5</v>
       </c>
     </row>
@@ -6832,12 +6946,12 @@
       <c r="I40">
         <v>258866</v>
       </c>
-      <c r="J40" s="15">
-        <f t="shared" si="0"/>
+      <c r="J40" s="12">
+        <f t="shared" si="1"/>
         <v>14.620200439962611</v>
       </c>
       <c r="K40">
-        <f>(C40*D40+G40*F40+E40*LOG(A40,2)+A40*B40)/8</f>
+        <f t="shared" si="2"/>
         <v>2561</v>
       </c>
     </row>
@@ -6869,12 +6983,12 @@
       <c r="I41">
         <v>240633</v>
       </c>
-      <c r="J41" s="15">
-        <f t="shared" si="0"/>
+      <c r="J41" s="12">
+        <f t="shared" si="1"/>
         <v>13.590447101667003</v>
       </c>
       <c r="K41">
-        <f>(C41*D41+G41*F41+E41*LOG(A41,2)+A41*B41)/8</f>
+        <f t="shared" si="2"/>
         <v>2562</v>
       </c>
     </row>
@@ -6906,12 +7020,12 @@
       <c r="I42">
         <v>240446</v>
       </c>
-      <c r="J42" s="15">
-        <f t="shared" si="0"/>
+      <c r="J42" s="12">
+        <f t="shared" si="1"/>
         <v>13.57991641251553</v>
       </c>
       <c r="K42">
-        <f>(C42*D42+G42*F42+E42*LOG(A42,2)+A42*B42)/8</f>
+        <f t="shared" si="2"/>
         <v>2564</v>
       </c>
     </row>
@@ -6943,12 +7057,12 @@
       <c r="I43">
         <v>236805</v>
       </c>
-      <c r="J43" s="15">
-        <f t="shared" si="0"/>
+      <c r="J43" s="12">
+        <f t="shared" si="1"/>
         <v>13.374143942962288</v>
       </c>
       <c r="K43">
-        <f>(C43*D43+G43*F43+E43*LOG(A43,2)+A43*B43)/8</f>
+        <f t="shared" si="2"/>
         <v>2568</v>
       </c>
     </row>
@@ -6980,12 +7094,12 @@
       <c r="I44">
         <v>230921</v>
       </c>
-      <c r="J44" s="15">
-        <f t="shared" si="0"/>
+      <c r="J44" s="12">
+        <f t="shared" si="1"/>
         <v>13.041955810484687</v>
       </c>
       <c r="K44">
-        <f>(C44*D44+G44*F44+E44*LOG(A44,2)+A44*B44)/8</f>
+        <f t="shared" si="2"/>
         <v>2576</v>
       </c>
     </row>
@@ -7017,12 +7131,12 @@
       <c r="I45">
         <v>239923</v>
       </c>
-      <c r="J45" s="15">
-        <f t="shared" si="0"/>
+      <c r="J45" s="12">
+        <f t="shared" si="1"/>
         <v>13.550347790923322</v>
       </c>
       <c r="K45">
-        <f>(C45*D45+G45*F45+E45*LOG(A45,2)+A45*B45)/8</f>
+        <f t="shared" si="2"/>
         <v>2592</v>
       </c>
     </row>
@@ -7054,12 +7168,12 @@
       <c r="I46">
         <v>237730</v>
       </c>
-      <c r="J46" s="15">
-        <f t="shared" si="0"/>
+      <c r="J46" s="12">
+        <f t="shared" si="1"/>
         <v>13.426385589664175</v>
       </c>
       <c r="K46">
-        <f>(C46*D46+G46*F46+E46*LOG(A46,2)+A46*B46)/8</f>
+        <f t="shared" si="2"/>
         <v>2624</v>
       </c>
     </row>
@@ -7091,12 +7205,12 @@
       <c r="I47">
         <v>237198</v>
       </c>
-      <c r="J47" s="15">
-        <f t="shared" si="0"/>
+      <c r="J47" s="12">
+        <f t="shared" si="1"/>
         <v>13.396437940703883</v>
       </c>
       <c r="K47">
-        <f>(C47*D47+G47*F47+E47*LOG(A47,2)+A47*B47)/8</f>
+        <f t="shared" si="2"/>
         <v>2688</v>
       </c>
     </row>
@@ -7128,12 +7242,12 @@
       <c r="I48">
         <v>234746</v>
       </c>
-      <c r="J48" s="15">
-        <f t="shared" si="0"/>
+      <c r="J48" s="12">
+        <f t="shared" si="1"/>
         <v>13.257924250921576</v>
       </c>
       <c r="K48">
-        <f>(C48*D48+G48*F48+E48*LOG(A48,2)+A48*B48)/8</f>
+        <f t="shared" si="2"/>
         <v>2816</v>
       </c>
     </row>
@@ -7165,12 +7279,12 @@
       <c r="I49">
         <v>233642</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="0"/>
+      <c r="J49" s="12">
+        <f t="shared" si="1"/>
         <v>13.195692064748929</v>
       </c>
       <c r="K49">
-        <f>(C49*D49+G49*F49+E49*LOG(A49,2)+A49*B49)/8</f>
+        <f t="shared" si="2"/>
         <v>3072</v>
       </c>
     </row>
@@ -7202,12 +7316,12 @@
       <c r="I50">
         <v>233023</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="0"/>
+      <c r="J50" s="12">
+        <f t="shared" si="1"/>
         <v>13.160754324829577</v>
       </c>
       <c r="K50">
-        <f>(C50*D50+G50*F50+E50*LOG(A50,2)+A50*B50)/8</f>
+        <f t="shared" si="2"/>
         <v>3584</v>
       </c>
     </row>
@@ -7240,12 +7354,12 @@
       <c r="I51">
         <v>233055</v>
       </c>
-      <c r="J51" s="15">
-        <f t="shared" si="0"/>
+      <c r="J51" s="12">
+        <f t="shared" si="1"/>
         <v>13.162494726360965</v>
       </c>
       <c r="K51">
-        <f>(C51*D51+G51*F51+E51*LOG(A51,2)+A51*B51)/8</f>
+        <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
@@ -7278,12 +7392,12 @@
       <c r="I52">
         <v>232880</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="0"/>
+      <c r="J52" s="12">
+        <f t="shared" si="1"/>
         <v>13.152611065520764</v>
       </c>
       <c r="K52">
-        <f>(C52*D52+G52*F52+E52*LOG(A52,2)+A52*B52)/8</f>
+        <f t="shared" si="2"/>
         <v>6656</v>
       </c>
     </row>
@@ -7316,12 +7430,12 @@
       <c r="I53">
         <v>232714</v>
       </c>
-      <c r="J53" s="15">
-        <f t="shared" si="0"/>
+      <c r="J53" s="12">
+        <f t="shared" si="1"/>
         <v>13.143265399484354</v>
       </c>
       <c r="K53">
-        <f>(C53*D53+G53*F53+E53*LOG(A53,2)+A53*B53)/8</f>
+        <f t="shared" si="2"/>
         <v>10752</v>
       </c>
     </row>
@@ -7354,12 +7468,12 @@
       <c r="I54">
         <v>232764</v>
       </c>
-      <c r="J54" s="15">
-        <f t="shared" si="0"/>
+      <c r="J54" s="12">
+        <f t="shared" si="1"/>
         <v>13.146000213486108</v>
       </c>
       <c r="K54">
-        <f>(C54*D54+G54*F54+E54*LOG(A54,2)+A54*B54)/8</f>
+        <f t="shared" ref="K54:K85" si="3">(C54*D54+G54*F54+E54*LOG(A54,2)+A54*B54)/8</f>
         <v>18944</v>
       </c>
     </row>
@@ -7392,12 +7506,12 @@
       <c r="I55">
         <v>232847</v>
       </c>
-      <c r="J55" s="15">
-        <f t="shared" si="0"/>
+      <c r="J55" s="12">
+        <f t="shared" si="1"/>
         <v>13.15079928069256</v>
       </c>
       <c r="K55">
-        <f>(C55*D55+G55*F55+E55*LOG(A55,2)+A55*B55)/8</f>
+        <f t="shared" si="3"/>
         <v>35328</v>
       </c>
     </row>
@@ -7429,12 +7543,12 @@
       <c r="I56">
         <v>238273</v>
       </c>
-      <c r="J56" s="15">
-        <f t="shared" si="0"/>
+      <c r="J56" s="12">
+        <f t="shared" si="1"/>
         <v>13.457106049832515</v>
       </c>
       <c r="K56">
-        <f>(C56*D56+G56*F56+E56*LOG(A56,2)+A56*B56)/8</f>
+        <f t="shared" si="3"/>
         <v>2128</v>
       </c>
     </row>
@@ -7466,12 +7580,12 @@
       <c r="I57">
         <v>241072</v>
       </c>
-      <c r="J57" s="15">
-        <f t="shared" si="0"/>
+      <c r="J57" s="12">
+        <f t="shared" si="1"/>
         <v>13.615217832076794</v>
       </c>
       <c r="K57">
-        <f>(C57*D57+G57*F57+E57*LOG(A57,2)+A57*B57)/8</f>
+        <f t="shared" si="3"/>
         <v>2624</v>
       </c>
     </row>
@@ -7503,12 +7617,12 @@
       <c r="I58">
         <v>234797</v>
       </c>
-      <c r="J58" s="15">
-        <f t="shared" si="0"/>
+      <c r="J58" s="12">
+        <f t="shared" si="1"/>
         <v>13.26057993752538</v>
       </c>
       <c r="K58">
-        <f>(C58*D58+G58*F58+E58*LOG(A58,2)+A58*B58)/8</f>
+        <f t="shared" si="3"/>
         <v>3728</v>
       </c>
     </row>
@@ -7540,12 +7654,12 @@
       <c r="I59">
         <v>234943</v>
       </c>
-      <c r="J59" s="15">
-        <f t="shared" si="0"/>
+      <c r="J59" s="12">
+        <f t="shared" si="1"/>
         <v>13.268975426108046</v>
       </c>
       <c r="K59">
-        <f>(C59*D59+G59*F59+E59*LOG(A59,2)+A59*B59)/8</f>
+        <f t="shared" si="3"/>
         <v>8224</v>
       </c>
     </row>
@@ -7577,12 +7691,12 @@
       <c r="I60">
         <v>231746</v>
       </c>
-      <c r="J60" s="15">
-        <f t="shared" si="0"/>
+      <c r="J60" s="12">
+        <f t="shared" si="1"/>
         <v>13.088564943276261</v>
       </c>
       <c r="K60">
-        <f>(C60*D60+G60*F60+E60*LOG(A60,2)+A60*B60)/8</f>
+        <f t="shared" si="3"/>
         <v>8336</v>
       </c>
     </row>
@@ -7614,12 +7728,12 @@
       <c r="I61">
         <v>231354</v>
       </c>
-      <c r="J61" s="15">
-        <f t="shared" si="0"/>
+      <c r="J61" s="12">
+        <f t="shared" si="1"/>
         <v>13.06632960806772</v>
       </c>
       <c r="K61">
-        <f>(C61*D61+G61*F61+E61*LOG(A61,2)+A61*B61)/8</f>
+        <f t="shared" si="3"/>
         <v>3728</v>
       </c>
     </row>
@@ -7651,12 +7765,12 @@
       <c r="I62">
         <v>229523</v>
       </c>
-      <c r="J62" s="15">
-        <f t="shared" si="0"/>
+      <c r="J62" s="12">
+        <f t="shared" si="1"/>
         <v>12.962970284168406</v>
       </c>
       <c r="K62">
-        <f>(C62*D62+G62*F62+E62*LOG(A62,2)+A62*B62)/8</f>
+        <f t="shared" si="3"/>
         <v>4112</v>
       </c>
     </row>
@@ -7688,12 +7802,12 @@
       <c r="I63">
         <v>237088</v>
       </c>
-      <c r="J63" s="15">
-        <f t="shared" si="0"/>
+      <c r="J63" s="12">
+        <f t="shared" si="1"/>
         <v>13.390172437552666</v>
       </c>
       <c r="K63">
-        <f>(C63*D63+G63*F63+E63*LOG(A63,2)+A63*B63)/8</f>
+        <f t="shared" si="3"/>
         <v>4100</v>
       </c>
     </row>
@@ -7725,12 +7839,12 @@
       <c r="I64">
         <v>233183</v>
       </c>
-      <c r="J64" s="15">
-        <f t="shared" si="0"/>
+      <c r="J64" s="12">
+        <f t="shared" si="1"/>
         <v>13.169634662836726</v>
       </c>
       <c r="K64">
-        <f>(C64*D64+G64*F64+E64*LOG(A64,2)+A64*B64)/8</f>
+        <f t="shared" si="3"/>
         <v>4104</v>
       </c>
     </row>
@@ -7754,7 +7868,7 @@
         <v>4</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G76" si="1">G64*2</f>
+        <f t="shared" ref="G65:G76" si="4">G64*2</f>
         <v>32</v>
       </c>
       <c r="H65">
@@ -7763,12 +7877,12 @@
       <c r="I65">
         <v>229523</v>
       </c>
-      <c r="J65" s="15">
-        <f t="shared" si="0"/>
+      <c r="J65" s="12">
+        <f t="shared" si="1"/>
         <v>12.962970284168406</v>
       </c>
       <c r="K65">
-        <f>(C65*D65+G65*F65+E65*LOG(A65,2)+A65*B65)/8</f>
+        <f t="shared" si="3"/>
         <v>4112</v>
       </c>
     </row>
@@ -7792,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="H66">
@@ -7801,12 +7915,12 @@
       <c r="I66">
         <v>238699</v>
       </c>
-      <c r="J66" s="15">
-        <f t="shared" si="0"/>
+      <c r="J66" s="12">
+        <f t="shared" si="1"/>
         <v>13.48110463064047</v>
       </c>
       <c r="K66">
-        <f>(C66*D66+G66*F66+E66*LOG(A66,2)+A66*B66)/8</f>
+        <f t="shared" si="3"/>
         <v>4128</v>
       </c>
     </row>
@@ -7830,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="H67">
@@ -7839,12 +7953,12 @@
       <c r="I67">
         <v>236848</v>
       </c>
-      <c r="J67" s="15">
-        <f t="shared" ref="J67:J112" si="2">I67/H67*100</f>
+      <c r="J67" s="12">
+        <f t="shared" ref="J67:J112" si="5">I67/H67*100</f>
         <v>13.376595137847582</v>
       </c>
       <c r="K67">
-        <f>(C67*D67+G67*F67+E67*LOG(A67,2)+A67*B67)/8</f>
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
     </row>
@@ -7868,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="H68">
@@ -7877,12 +7991,12 @@
       <c r="I68">
         <v>236179</v>
       </c>
-      <c r="J68" s="15">
-        <f t="shared" si="2"/>
+      <c r="J68" s="12">
+        <f t="shared" si="5"/>
         <v>13.338796588985646</v>
       </c>
       <c r="K68">
-        <f>(C68*D68+G68*F68+E68*LOG(A68,2)+A68*B68)/8</f>
+        <f t="shared" si="3"/>
         <v>4224</v>
       </c>
     </row>
@@ -7906,7 +8020,7 @@
         <v>4</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>512</v>
       </c>
       <c r="H69">
@@ -7915,12 +8029,12 @@
       <c r="I69">
         <v>233583</v>
       </c>
-      <c r="J69" s="15">
-        <f t="shared" si="2"/>
+      <c r="J69" s="12">
+        <f t="shared" si="5"/>
         <v>13.192136327157163</v>
       </c>
       <c r="K69">
-        <f>(C69*D69+G69*F69+E69*LOG(A69,2)+A69*B69)/8</f>
+        <f t="shared" si="3"/>
         <v>4352</v>
       </c>
     </row>
@@ -7944,7 +8058,7 @@
         <v>4</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
       <c r="H70">
@@ -7953,12 +8067,12 @@
       <c r="I70">
         <v>232558</v>
       </c>
-      <c r="J70" s="15">
-        <f t="shared" si="2"/>
+      <c r="J70" s="12">
+        <f t="shared" si="5"/>
         <v>13.134291605694512</v>
       </c>
       <c r="K70">
-        <f>(C70*D70+G70*F70+E70*LOG(A70,2)+A70*B70)/8</f>
+        <f t="shared" si="3"/>
         <v>4608</v>
       </c>
     </row>
@@ -7982,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="H71">
@@ -7991,12 +8105,12 @@
       <c r="I71">
         <v>231735</v>
       </c>
-      <c r="J71" s="15">
-        <f t="shared" si="2"/>
+      <c r="J71" s="12">
+        <f t="shared" si="5"/>
         <v>13.087751500176491</v>
       </c>
       <c r="K71">
-        <f>(C71*D71+G71*F71+E71*LOG(A71,2)+A71*B71)/8</f>
+        <f t="shared" si="3"/>
         <v>5120</v>
       </c>
     </row>
@@ -8020,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4096</v>
       </c>
       <c r="H72">
@@ -8029,12 +8143,12 @@
       <c r="I72">
         <v>231915</v>
       </c>
-      <c r="J72" s="15">
-        <f t="shared" si="2"/>
+      <c r="J72" s="12">
+        <f t="shared" si="5"/>
         <v>13.098043158056441</v>
       </c>
       <c r="K72">
-        <f>(C72*D72+G72*F72+E72*LOG(A72,2)+A72*B72)/8</f>
+        <f t="shared" si="3"/>
         <v>6144</v>
       </c>
     </row>
@@ -8058,7 +8172,7 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8192</v>
       </c>
       <c r="H73">
@@ -8067,12 +8181,12 @@
       <c r="I73">
         <v>231708</v>
       </c>
-      <c r="J73" s="15">
-        <f t="shared" si="2"/>
+      <c r="J73" s="12">
+        <f t="shared" si="5"/>
         <v>13.086300522699739</v>
       </c>
       <c r="K73">
-        <f>(C73*D73+G73*F73+E73*LOG(A73,2)+A73*B73)/8</f>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
     </row>
@@ -8096,7 +8210,7 @@
         <v>4</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
       <c r="H74">
@@ -8105,12 +8219,12 @@
       <c r="I74">
         <v>231683</v>
       </c>
-      <c r="J74" s="15">
-        <f t="shared" si="2"/>
+      <c r="J74" s="12">
+        <f t="shared" si="5"/>
         <v>13.08485902387809</v>
       </c>
       <c r="K74">
-        <f>(C74*D74+G74*F74+E74*LOG(A74,2)+A74*B74)/8</f>
+        <f t="shared" si="3"/>
         <v>12288</v>
       </c>
     </row>
@@ -8134,7 +8248,7 @@
         <v>4</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32768</v>
       </c>
       <c r="H75">
@@ -8143,12 +8257,12 @@
       <c r="I75">
         <v>231730</v>
       </c>
-      <c r="J75" s="15">
-        <f t="shared" si="2"/>
+      <c r="J75" s="12">
+        <f t="shared" si="5"/>
         <v>13.087528245803581</v>
       </c>
       <c r="K75">
-        <f>(C75*D75+G75*F75+E75*LOG(A75,2)+A75*B75)/8</f>
+        <f t="shared" si="3"/>
         <v>20480</v>
       </c>
     </row>
@@ -8172,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65536</v>
       </c>
       <c r="H76">
@@ -8181,12 +8295,12 @@
       <c r="I76">
         <v>231743</v>
       </c>
-      <c r="J76" s="15">
-        <f t="shared" si="2"/>
+      <c r="J76" s="12">
+        <f t="shared" si="5"/>
         <v>13.088284628947925</v>
       </c>
       <c r="K76">
-        <f>(C76*D76+G76*F76+E76*LOG(A76,2)+A76*B76)/8</f>
+        <f t="shared" si="3"/>
         <v>36864</v>
       </c>
     </row>
@@ -8218,12 +8332,12 @@
       <c r="I77">
         <v>229523</v>
       </c>
-      <c r="J77" s="15">
-        <f t="shared" si="2"/>
+      <c r="J77" s="12">
+        <f t="shared" si="5"/>
         <v>12.962970284168406</v>
       </c>
       <c r="K77">
-        <f>(C77*D77+G77*F77+E77*LOG(A77,2)+A77*B77)/8</f>
+        <f t="shared" si="3"/>
         <v>4112</v>
       </c>
     </row>
@@ -8259,12 +8373,12 @@
       <c r="I78">
         <v>239519</v>
       </c>
-      <c r="J78" s="15">
-        <f t="shared" si="2"/>
+      <c r="J78" s="12">
+        <f t="shared" si="5"/>
         <v>13.527454318106599</v>
       </c>
       <c r="K78">
-        <f>(C78*D78+G78*F78+E78*LOG(A78,2)+A78*B78)/8</f>
+        <f t="shared" si="3"/>
         <v>8480</v>
       </c>
     </row>
@@ -8296,12 +8410,12 @@
       <c r="I79">
         <v>231493</v>
       </c>
-      <c r="J79" s="15">
-        <f t="shared" si="2"/>
+      <c r="J79" s="12">
+        <f t="shared" si="5"/>
         <v>13.074172617054094</v>
       </c>
       <c r="K79">
-        <f>(C79*D79+G79*F79+E79*LOG(A79,2)+A79*B79)/8</f>
+        <f t="shared" si="3"/>
         <v>6288</v>
       </c>
     </row>
@@ -8333,18 +8447,18 @@
       <c r="I80">
         <v>245649</v>
       </c>
-      <c r="J80" s="15">
-        <f t="shared" si="2"/>
+      <c r="J80" s="12">
+        <f t="shared" si="5"/>
         <v>13.873646233853076</v>
       </c>
       <c r="K80">
-        <f>(C80*D80+G80*F80+E80*LOG(A80,2)+A80*B80)/8</f>
+        <f t="shared" si="3"/>
         <v>1328</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" ref="A81:A91" si="3">2*A80</f>
+        <f t="shared" ref="A81:A91" si="6">2*A80</f>
         <v>128</v>
       </c>
       <c r="B81">
@@ -8371,18 +8485,18 @@
       <c r="I81">
         <v>245246</v>
       </c>
-      <c r="J81" s="15">
-        <f t="shared" si="2"/>
+      <c r="J81" s="12">
+        <f t="shared" si="5"/>
         <v>13.850885793418788</v>
       </c>
       <c r="K81">
-        <f>(C81*D81+G81*F81+E81*LOG(A81,2)+A81*B81)/8</f>
+        <f t="shared" si="3"/>
         <v>1488</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="B82">
@@ -8409,18 +8523,18 @@
       <c r="I82">
         <v>245596</v>
       </c>
-      <c r="J82" s="15">
-        <f t="shared" si="2"/>
+      <c r="J82" s="12">
+        <f t="shared" si="5"/>
         <v>13.87065292530961</v>
       </c>
       <c r="K82">
-        <f>(C82*D82+G82*F82+E82*LOG(A82,2)+A82*B82)/8</f>
+        <f t="shared" si="3"/>
         <v>1680</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>512</v>
       </c>
       <c r="B83">
@@ -8447,18 +8561,18 @@
       <c r="I83">
         <v>245695</v>
       </c>
-      <c r="J83" s="15">
-        <f t="shared" si="2"/>
+      <c r="J83" s="12">
+        <f t="shared" si="5"/>
         <v>13.876244199758728</v>
       </c>
       <c r="K83">
-        <f>(C83*D83+G83*F83+E83*LOG(A83,2)+A83*B83)/8</f>
+        <f t="shared" si="3"/>
         <v>1936</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1024</v>
       </c>
       <c r="B84">
@@ -8485,18 +8599,18 @@
       <c r="I84">
         <v>229348</v>
       </c>
-      <c r="J84" s="15">
-        <f t="shared" si="2"/>
+      <c r="J84" s="12">
+        <f t="shared" si="5"/>
         <v>12.953013500958708</v>
       </c>
       <c r="K84">
-        <f>(C84*D84+G84*F84+E84*LOG(A84,2)+A84*B84)/8</f>
+        <f t="shared" si="3"/>
         <v>2320</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="B85">
@@ -8523,18 +8637,18 @@
       <c r="I85">
         <v>229245</v>
       </c>
-      <c r="J85" s="15">
-        <f t="shared" si="2"/>
+      <c r="J85" s="12">
+        <f t="shared" si="5"/>
         <v>12.947254811485553</v>
       </c>
       <c r="K85">
-        <f>(C85*D85+G85*F85+E85*LOG(A85,2)+A85*B85)/8</f>
+        <f t="shared" si="3"/>
         <v>2960</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B86">
@@ -8561,18 +8675,18 @@
       <c r="I86">
         <v>229523</v>
       </c>
-      <c r="J86" s="15">
-        <f t="shared" si="2"/>
+      <c r="J86" s="12">
+        <f t="shared" si="5"/>
         <v>12.962970284168406</v>
       </c>
       <c r="K86">
-        <f>(C86*D86+G86*F86+E86*LOG(A86,2)+A86*B86)/8</f>
+        <f t="shared" ref="K86:K112" si="7">(C86*D86+G86*F86+E86*LOG(A86,2)+A86*B86)/8</f>
         <v>4112</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="B87">
@@ -8599,18 +8713,18 @@
       <c r="I87">
         <v>231493</v>
       </c>
-      <c r="J87" s="15">
-        <f t="shared" si="2"/>
+      <c r="J87" s="12">
+        <f t="shared" si="5"/>
         <v>13.074172617054094</v>
       </c>
       <c r="K87">
-        <f>(C87*D87+G87*F87+E87*LOG(A87,2)+A87*B87)/8</f>
+        <f t="shared" si="7"/>
         <v>6288</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="B88">
@@ -8637,18 +8751,18 @@
       <c r="I88">
         <v>233608</v>
       </c>
-      <c r="J88" s="15">
-        <f t="shared" si="2"/>
+      <c r="J88" s="12">
+        <f t="shared" si="5"/>
         <v>13.193548259567395</v>
       </c>
       <c r="K88">
-        <f>(C88*D88+G88*F88+E88*LOG(A88,2)+A88*B88)/8</f>
+        <f t="shared" si="7"/>
         <v>10512</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="B89">
@@ -8675,18 +8789,18 @@
       <c r="I89">
         <v>235078</v>
       </c>
-      <c r="J89" s="15">
-        <f t="shared" si="2"/>
+      <c r="J89" s="12">
+        <f t="shared" si="5"/>
         <v>13.276554888810448</v>
       </c>
       <c r="K89">
-        <f>(C89*D89+G89*F89+E89*LOG(A89,2)+A89*B89)/8</f>
+        <f t="shared" si="7"/>
         <v>18832</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="B90">
@@ -8713,18 +8827,18 @@
       <c r="I90">
         <v>236558</v>
       </c>
-      <c r="J90" s="15">
-        <f t="shared" si="2"/>
+      <c r="J90" s="12">
+        <f t="shared" si="5"/>
         <v>13.360118556805833</v>
       </c>
       <c r="K90">
-        <f>(C90*D90+G90*F90+E90*LOG(A90,2)+A90*B90)/8</f>
+        <f t="shared" si="7"/>
         <v>35344</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>131072</v>
       </c>
       <c r="B91">
@@ -8751,12 +8865,12 @@
       <c r="I91">
         <v>237943</v>
       </c>
-      <c r="J91" s="15">
-        <f t="shared" si="2"/>
+      <c r="J91" s="12">
+        <f t="shared" si="5"/>
         <v>13.438415287769581</v>
       </c>
       <c r="K91">
-        <f>(C91*D91+G91*F91+E91*LOG(A91,2)+A91*B91)/8</f>
+        <f t="shared" si="7"/>
         <v>68240</v>
       </c>
     </row>
@@ -8788,12 +8902,12 @@
       <c r="I92">
         <v>233881</v>
       </c>
-      <c r="J92" s="15">
-        <f t="shared" si="2"/>
+      <c r="J92" s="12">
+        <f t="shared" si="5"/>
         <v>13.209085923640876</v>
       </c>
       <c r="K92">
-        <f>(C92*D92+G92*F92+E92*LOG(A92,2)+A92*B92)/8</f>
+        <f t="shared" si="7"/>
         <v>21520</v>
       </c>
     </row>
@@ -8825,12 +8939,12 @@
       <c r="I93">
         <v>239210</v>
       </c>
-      <c r="J93" s="15">
-        <f t="shared" si="2"/>
+      <c r="J93" s="12">
+        <f t="shared" si="5"/>
         <v>13.509979854480106</v>
       </c>
       <c r="K93">
-        <f>(C93*D93+G93*F93+E93*LOG(A93,2)+A93*B93)/8</f>
+        <f t="shared" si="7"/>
         <v>21632</v>
       </c>
     </row>
@@ -8863,12 +8977,12 @@
       <c r="I94">
         <v>236178</v>
       </c>
-      <c r="J94" s="15">
-        <f t="shared" si="2"/>
+      <c r="J94" s="12">
+        <f t="shared" si="5"/>
         <v>13.338815445776506</v>
       </c>
       <c r="K94">
-        <f>(C94*D94+G94*F94+E94*LOG(A94,2)+A94*B94)/8</f>
+        <f t="shared" si="7"/>
         <v>26640</v>
       </c>
     </row>
@@ -8900,12 +9014,12 @@
       <c r="I95">
         <v>232644</v>
       </c>
-      <c r="J95" s="15">
-        <f t="shared" si="2"/>
+      <c r="J95" s="12">
+        <f t="shared" si="5"/>
         <v>13.139252559721179</v>
       </c>
       <c r="K95">
-        <f>(C95*D95+G95*F95+E95*LOG(A95,2)+A95*B95)/8</f>
+        <f t="shared" si="7"/>
         <v>1824</v>
       </c>
     </row>
@@ -8937,12 +9051,12 @@
       <c r="I96">
         <v>232805</v>
       </c>
-      <c r="J96" s="15">
-        <f t="shared" si="2"/>
+      <c r="J96" s="12">
+        <f t="shared" si="5"/>
         <v>13.148226693602632</v>
       </c>
       <c r="K96">
-        <f>(C96*D96+G96*F96+E96*LOG(A96,2)+A96*B96)/8</f>
+        <f t="shared" si="7"/>
         <v>3872</v>
       </c>
     </row>
@@ -8974,12 +9088,12 @@
       <c r="I97">
         <v>230464</v>
       </c>
-      <c r="J97" s="15">
-        <f t="shared" si="2"/>
+      <c r="J97" s="12">
+        <f t="shared" si="5"/>
         <v>13.016020395138872</v>
       </c>
       <c r="K97">
-        <f>(C97*D97+G97*F97+E97*LOG(A97,2)+A97*B97)/8</f>
+        <f t="shared" si="7"/>
         <v>1936</v>
       </c>
     </row>
@@ -9011,12 +9125,12 @@
       <c r="I98">
         <v>229348</v>
       </c>
-      <c r="J98" s="15">
-        <f t="shared" si="2"/>
+      <c r="J98" s="12">
+        <f t="shared" si="5"/>
         <v>12.953013500958708</v>
       </c>
       <c r="K98">
-        <f>(C98*D98+G98*F98+E98*LOG(A98,2)+A98*B98)/8</f>
+        <f t="shared" si="7"/>
         <v>2320</v>
       </c>
     </row>
@@ -9048,12 +9162,12 @@
       <c r="I99">
         <v>229449</v>
       </c>
-      <c r="J99" s="15">
-        <f t="shared" si="2"/>
+      <c r="J99" s="12">
+        <f t="shared" si="5"/>
         <v>12.958717733668809</v>
       </c>
       <c r="K99">
-        <f>(C99*D99+G99*F99+E99*LOG(A99,2)+A99*B99)/8</f>
+        <f t="shared" si="7"/>
         <v>2832</v>
       </c>
     </row>
@@ -9085,12 +9199,12 @@
       <c r="I100">
         <v>229963</v>
       </c>
-      <c r="J100" s="15">
-        <f t="shared" si="2"/>
+      <c r="J100" s="12">
+        <f t="shared" si="5"/>
         <v>12.987732524876922</v>
       </c>
       <c r="K100">
-        <f>(C100*D100+G100*F100+E100*LOG(A100,2)+A100*B100)/8</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
     </row>
@@ -9122,12 +9236,12 @@
       <c r="I101">
         <v>232062</v>
       </c>
-      <c r="J101" s="15">
-        <f t="shared" si="2"/>
+      <c r="J101" s="12">
+        <f t="shared" si="5"/>
         <v>13.106286173851361</v>
       </c>
       <c r="K101">
-        <f>(C101*D101+G101*F101+E101*LOG(A101,2)+A101*B101)/8</f>
+        <f t="shared" si="7"/>
         <v>2816</v>
       </c>
     </row>
@@ -9159,12 +9273,12 @@
       <c r="I102">
         <v>252276</v>
       </c>
-      <c r="J102" s="15">
-        <f t="shared" si="2"/>
+      <c r="J102" s="12">
+        <f t="shared" si="5"/>
         <v>14.2478744757492</v>
       </c>
       <c r="K102">
-        <f>(C102*D102+G102*F102+E102*LOG(A102,2)+A102*B102)/8</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
     </row>
@@ -9196,12 +9310,12 @@
       <c r="I103">
         <v>246988</v>
       </c>
-      <c r="J103" s="15">
-        <f t="shared" si="2"/>
+      <c r="J103" s="12">
+        <f t="shared" si="5"/>
         <v>13.94948234739965</v>
       </c>
       <c r="K103">
-        <f>(C103*D103+G103*F103+E103*LOG(A103,2)+A103*B103)/8</f>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
     </row>
@@ -9233,12 +9347,12 @@
       <c r="I104">
         <v>247146</v>
       </c>
-      <c r="J104" s="15">
-        <f t="shared" si="2"/>
+      <c r="J104" s="12">
+        <f t="shared" si="5"/>
         <v>13.958240380433862</v>
       </c>
       <c r="K104">
-        <f>(C104*D104+G104*F104+E104*LOG(A104,2)+A104*B104)/8</f>
+        <f t="shared" si="7"/>
         <v>528</v>
       </c>
     </row>
@@ -9270,12 +9384,12 @@
       <c r="I105">
         <v>246383</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="2"/>
+      <c r="J105" s="12">
+        <f t="shared" si="5"/>
         <v>13.915132168990157</v>
       </c>
       <c r="K105">
-        <f>(C105*D105+G105*F105+E105*LOG(A105,2)+A105*B105)/8</f>
+        <f t="shared" si="7"/>
         <v>1104</v>
       </c>
     </row>
@@ -9307,12 +9421,12 @@
       <c r="I106">
         <v>229348</v>
       </c>
-      <c r="J106" s="15">
-        <f t="shared" si="2"/>
+      <c r="J106" s="12">
+        <f t="shared" si="5"/>
         <v>12.953013500958708</v>
       </c>
       <c r="K106">
-        <f>(C106*D106+G106*F106+E106*LOG(A106,2)+A106*B106)/8</f>
+        <f t="shared" si="7"/>
         <v>2320</v>
       </c>
     </row>
@@ -9344,12 +9458,12 @@
       <c r="I107">
         <v>229069</v>
       </c>
-      <c r="J107" s="15">
-        <f t="shared" si="2"/>
+      <c r="J107" s="12">
+        <f t="shared" si="5"/>
         <v>12.937285490714787</v>
       </c>
       <c r="K107">
-        <f>(C107*D107+G107*F107+E107*LOG(A107,2)+A107*B107)/8</f>
+        <f t="shared" si="7"/>
         <v>4880</v>
       </c>
     </row>
@@ -9384,12 +9498,12 @@
       <c r="I108">
         <v>230435</v>
       </c>
-      <c r="J108" s="15">
-        <f t="shared" si="2"/>
+      <c r="J108" s="12">
+        <f t="shared" si="5"/>
         <v>13.014426650220376</v>
       </c>
       <c r="K108">
-        <f>(C108*D108+G108*F108+E108*LOG(A108,2)+A108*B108)/8</f>
+        <f t="shared" si="7"/>
         <v>10256</v>
       </c>
     </row>
@@ -9424,32 +9538,32 @@
       <c r="I109">
         <v>233881</v>
       </c>
-      <c r="J109" s="15">
-        <f t="shared" si="2"/>
+      <c r="J109" s="12">
+        <f t="shared" si="5"/>
         <v>13.209085923640876</v>
       </c>
       <c r="K109">
-        <f>(C109*D109+G109*F109+E109*LOG(A109,2)+A109*B109)/8</f>
+        <f t="shared" si="7"/>
         <v>21520</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" ref="A110:A111" si="4">A109*2</f>
+        <f t="shared" ref="A110:A111" si="8">A109*2</f>
         <v>16384</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C112" si="5">C109*2</f>
+        <f t="shared" ref="C110:C112" si="9">C109*2</f>
         <v>16384</v>
       </c>
       <c r="D110">
         <v>4</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E112" si="6">E109*2</f>
+        <f t="shared" ref="E110:E112" si="10">E109*2</f>
         <v>16384</v>
       </c>
       <c r="F110">
@@ -9464,32 +9578,32 @@
       <c r="I110">
         <v>238320</v>
       </c>
-      <c r="J110" s="15">
-        <f t="shared" si="2"/>
+      <c r="J110" s="12">
+        <f t="shared" si="5"/>
         <v>13.459836518786558</v>
       </c>
       <c r="K110">
-        <f>(C110*D110+G110*F110+E110*LOG(A110,2)+A110*B110)/8</f>
+        <f t="shared" si="7"/>
         <v>45072</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32768</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>32768</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>32768</v>
       </c>
       <c r="F111">
@@ -9504,12 +9618,12 @@
       <c r="I111">
         <v>244835</v>
       </c>
-      <c r="J111" s="15">
-        <f t="shared" si="2"/>
+      <c r="J111" s="12">
+        <f t="shared" si="5"/>
         <v>13.827720390148029</v>
       </c>
       <c r="K111">
-        <f>(C111*D111+G111*F111+E111*LOG(A111,2)+A111*B111)/8</f>
+        <f t="shared" si="7"/>
         <v>94224</v>
       </c>
     </row>
@@ -9522,14 +9636,14 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>65536</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>65536</v>
       </c>
       <c r="F112">
@@ -9544,12 +9658,12 @@
       <c r="I112">
         <v>250510</v>
       </c>
-      <c r="J112" s="15">
-        <f t="shared" si="2"/>
+      <c r="J112" s="12">
+        <f t="shared" si="5"/>
         <v>14.148271353576886</v>
       </c>
       <c r="K112">
-        <f>(C112*D112+G112*F112+E112*LOG(A112,2)+A112*B112)/8</f>
+        <f t="shared" si="7"/>
         <v>196624</v>
       </c>
     </row>
